--- a/Tabla homologada EdesurResidencial actualizada.xlsx
+++ b/Tabla homologada EdesurResidencial actualizada.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -22,44 +25,13 @@
     <t>SECTOR RESIDENCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMBRE:                                                                                                                         DOC. DE IDENTIDAD: </t>
-  </si>
-  <si>
     <t>FECHA:</t>
   </si>
   <si>
-    <t>Correo Electronico:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telef. Celular:                                    Residencial:   </t>
-  </si>
-  <si>
     <t>TARIFA:</t>
   </si>
   <si>
     <t xml:space="preserve"> BTS1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dirección:    </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF0070C0"/>
-        <sz val="9.0"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <sz val="9.0"/>
-      </rPr>
-      <t xml:space="preserve">                                                             </t>
-    </r>
   </si>
   <si>
     <r>
@@ -67,10 +39,10 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF0070C0"/>
-        <sz val="9.0"/>
       </rPr>
       <t>120/240 V</t>
     </r>
@@ -417,18 +389,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">NOTA: </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Para el calcula del consumo mensual de estos y otros equipos eléctricos se utilizará la siguiente formula.
 Variables Fijas: DIAS USO MES = 30 días y FACTOR DE OPERACÍON = 0.65 
@@ -436,25 +408,25 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Consumo Mensual (KWh/Mes) =                                         x </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>#</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">  Días de Uso /Mes x Hrs Uso/Dia x Factor    de Operaciones</t>
     </r>
@@ -503,76 +475,102 @@
   </si>
   <si>
     <t>Firma del Usuario del Contrato</t>
+  </si>
+  <si>
+    <t>NOMBRE:     Joaquín Adrián Gañán de León                                                          DOC. DE IDENTIDAD: 402-2349757-5</t>
+  </si>
+  <si>
+    <t>Correo Electronico: joaquinganan95@gmail.com</t>
+  </si>
+  <si>
+    <t>Dirección:  Zona Universitaria, Calle Dr. Piñeyro no. 165, Res. Margarita lll, apartamento 403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telef. Celular:   849-451-0361                 Residencial:   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -582,7 +580,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -592,27 +590,39 @@
     </fill>
   </fills>
   <borders count="14">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -622,14 +632,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -638,30 +652,38 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -671,6 +693,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -679,9 +702,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -696,6 +721,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -707,162 +733,174 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -871,7 +909,7 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1009650" cy="323850"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -887,23 +925,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -943,7 +981,7 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="533400" cy="523875"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -959,23 +997,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1017,13 +1055,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4955475" y="3780000"/>
-          <a:ext cx="781050" cy="0"/>
+          <a:off x="6448425" y="13335000"/>
+          <a:ext cx="781050" cy="38100"/>
           <a:chOff x="4955475" y="3780000"/>
           <a:chExt cx="781050" cy="0"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="5" name="Shape 5"/>
           <xdr:cNvCxnSpPr/>
@@ -1037,14 +1075,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:miter lim="800000"/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -1055,7 +1093,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1245,31 +1283,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.63"/>
-    <col customWidth="1" min="2" max="2" width="8.38"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="8.5"/>
-    <col customWidth="1" min="5" max="5" width="43.75"/>
-    <col customWidth="1" min="6" max="6" width="7.88"/>
-    <col customWidth="1" min="7" max="7" width="7.75"/>
-    <col customWidth="1" min="8" max="8" width="7.25"/>
-    <col customWidth="1" min="9" max="26" width="8.0"/>
+    <col min="1" max="1" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1318,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1287,1527 +1327,1588 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="52">
+        <v>43992</v>
+      </c>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="G6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9" t="s">
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="10" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10">
         <f>630/1000</f>
         <v>0.63</v>
       </c>
-      <c r="D10" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="21">
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="12">
         <v>0.3</v>
       </c>
-      <c r="H10" s="20">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23">
+      <c r="H10" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
         <f>850/1000</f>
         <v>0.85</v>
       </c>
-      <c r="D11" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25">
+      <c r="D11" s="15">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16">
         <v>0.03</v>
       </c>
-      <c r="H11" s="24">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23">
+      <c r="H11" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
         <f>1065/1000</f>
-        <v>1.065</v>
-      </c>
-      <c r="D12" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="25">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="D12" s="15">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="16">
         <v>0.02</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="15">
         <v>1.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23">
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14">
         <f>1350/1000</f>
         <v>1.35</v>
       </c>
-      <c r="D13" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="25">
+      <c r="D13" s="15">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="16">
         <v>0.12</v>
       </c>
-      <c r="H13" s="24">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23">
+      <c r="H13" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14">
         <f>1550/1000</f>
         <v>1.55</v>
       </c>
-      <c r="D14" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="25">
+      <c r="D14" s="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16">
         <v>0.5</v>
       </c>
-      <c r="H14" s="24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23">
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14">
         <f>2100/1000</f>
         <v>2.1</v>
       </c>
-      <c r="D15" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="25">
+      <c r="D15" s="15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16">
         <v>0.12</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="15">
         <v>1.6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23">
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="A16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14">
         <f>2830/1000</f>
         <v>2.83</v>
       </c>
-      <c r="D16" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="25">
+      <c r="D16" s="15">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="16">
         <v>0.8</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27">
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18">
         <f>4070/1000</f>
         <v>4.07</v>
       </c>
-      <c r="D17" s="28">
-        <v>8.0</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="25">
+      <c r="D17" s="19">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16">
         <v>0.2</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="30">
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="21">
         <v>0.3</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="19">
         <v>0.15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="19">
+    <row r="19" spans="1:8" ht="14.25">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10">
         <f>900/1000</f>
         <v>0.9</v>
       </c>
-      <c r="D19" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="25">
+      <c r="D19" s="11">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="16">
         <v>0.06</v>
       </c>
-      <c r="H19" s="24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="23">
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25">
+      <c r="A20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14">
         <f>1250/1000</f>
         <v>1.25</v>
       </c>
-      <c r="D20" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25">
+      <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
         <v>0.04</v>
       </c>
-      <c r="H20" s="24">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23">
+      <c r="H20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14">
         <f>1950/1000</f>
         <v>1.95</v>
       </c>
-      <c r="D21" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25">
+      <c r="D21" s="15">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="16">
         <v>0.61</v>
       </c>
-      <c r="H21" s="24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23">
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14">
         <f>2650/1000</f>
         <v>2.65</v>
       </c>
-      <c r="D22" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="25">
+      <c r="D22" s="15">
+        <v>8</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="16">
         <v>0.12</v>
       </c>
-      <c r="H22" s="24">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23">
+      <c r="H22" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14">
         <f>3600/1000</f>
         <v>3.6</v>
       </c>
-      <c r="D23" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="15">
+        <v>8</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H23" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14">
+        <f>4100/1000</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D24" s="15">
+        <v>8</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
+        <f>5100/1000</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D25" s="19">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25">
-        <v>0.015</v>
-      </c>
-      <c r="H23" s="24">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23">
-        <f>4100/1000</f>
-        <v>4.1</v>
-      </c>
-      <c r="D24" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="25">
-        <v>0.045</v>
-      </c>
-      <c r="H24" s="24">
+      <c r="F26" s="13"/>
+      <c r="G26" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H26" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>8</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27">
-        <f>5100/1000</f>
-        <v>5.1</v>
-      </c>
-      <c r="D25" s="28">
-        <v>8.0</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="25">
-        <v>0.006</v>
-      </c>
-      <c r="H25" s="24">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="H27" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="22" t="s">
+      <c r="B28" s="15">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D28" s="15">
+        <v>8</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="25">
-        <v>0.07</v>
-      </c>
-      <c r="H26" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="16">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H28" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19">
-        <f>70/1000</f>
-        <v>0.07</v>
-      </c>
-      <c r="D27" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E27" s="33" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="18">
+        <f>78/1000</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="D29" s="19">
+        <v>8</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="22" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="16">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H29" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23">
-        <v>0.07</v>
-      </c>
-      <c r="D28" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E28" s="22" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="25">
-        <v>0.145</v>
-      </c>
-      <c r="H28" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="26" t="s">
+      <c r="F30" s="15"/>
+      <c r="G30" s="16">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H30" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="27">
-        <f>78/1000</f>
-        <v>0.078</v>
-      </c>
-      <c r="D29" s="28">
-        <v>8.0</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="25">
-        <v>0.055</v>
-      </c>
-      <c r="H29" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25">
-        <v>0.175</v>
-      </c>
-      <c r="H30" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10">
         <f>100/1000</f>
         <v>0.1</v>
       </c>
-      <c r="D31" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="25">
+      <c r="D31" s="11">
+        <v>8</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="16">
         <v>0.33</v>
       </c>
-      <c r="H31" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23">
+      <c r="H31" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14">
         <f>650/1000</f>
         <v>0.65</v>
       </c>
-      <c r="D32" s="34">
-        <v>8.0</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="30">
-        <v>0.175</v>
-      </c>
-      <c r="H32" s="28">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23">
+      <c r="D32" s="25">
+        <v>8</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="21">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H32" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14">
         <f>575/1000</f>
-        <v>0.575</v>
-      </c>
-      <c r="D33" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D33" s="15">
+        <v>8</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14">
         <f>1012/1000</f>
         <v>1.012</v>
       </c>
-      <c r="D34" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="36">
-        <v>6.0</v>
-      </c>
-      <c r="G34" s="37">
+      <c r="D34" s="15">
+        <v>8</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="27">
+        <v>1</v>
+      </c>
+      <c r="G34" s="28">
         <f>9/1000</f>
-        <v>0.009</v>
-      </c>
-      <c r="H34" s="20">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H34" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14">
         <f>80/1000</f>
         <v>0.08</v>
       </c>
-      <c r="D35" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39">
+      <c r="D35" s="15">
+        <v>8</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="37">
+        <v>4</v>
+      </c>
+      <c r="G35" s="30">
         <f>11/1000</f>
-        <v>0.011</v>
-      </c>
-      <c r="H35" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H35" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14">
         <f>132/1000</f>
-        <v>0.132</v>
-      </c>
-      <c r="D36" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D36" s="15">
+        <v>8</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30">
         <f>13/1000</f>
-        <v>0.013</v>
-      </c>
-      <c r="H36" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H36" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14">
         <f>300/1000</f>
         <v>0.3</v>
       </c>
-      <c r="D37" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="23">
+      <c r="D37" s="15">
+        <v>8</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="14">
         <f>20/1000</f>
         <v>0.02</v>
       </c>
-      <c r="H37" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23">
+      <c r="H37" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14">
         <f>525/1000</f>
-        <v>0.525</v>
-      </c>
-      <c r="D38" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D38" s="15">
+        <v>8</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30">
         <f>22/1000</f>
-        <v>0.022</v>
-      </c>
-      <c r="H38" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H38" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14">
         <f>650/1000</f>
         <v>0.65</v>
       </c>
-      <c r="D39" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="23">
+      <c r="D39" s="15">
+        <v>8</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="14">
         <f>40/1000</f>
         <v>0.04</v>
       </c>
-      <c r="H39" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27">
+      <c r="H39" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18">
         <f>1000/1000</f>
         <v>1</v>
       </c>
-      <c r="D40" s="28">
-        <v>8.0</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="23">
+      <c r="D40" s="19">
+        <v>8</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="14">
         <f>60/1000</f>
         <v>0.06</v>
       </c>
-      <c r="H40" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39">
+      <c r="H40" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30">
         <f>75/1000</f>
-        <v>0.075</v>
-      </c>
-      <c r="H41" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19">
-        <f t="shared" ref="C42:C43" si="1">1000/1000</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H41" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10">
+        <f t="shared" ref="C42:C43" si="0">1000/1000</f>
         <v>1</v>
       </c>
-      <c r="D42" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="23">
+      <c r="D42" s="11">
+        <v>1</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="14">
         <f>100/1000</f>
         <v>0.1</v>
       </c>
-      <c r="H42" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="23">
-        <f t="shared" si="1"/>
+      <c r="H42" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="15">
         <v>0.25</v>
       </c>
-      <c r="E43" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39">
+      <c r="E43" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30">
         <f>5/1000</f>
-        <v>0.005</v>
-      </c>
-      <c r="H43" s="24">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H43" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14">
         <f>1100/1000</f>
-        <v>1.1</v>
-      </c>
-      <c r="D44" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D44" s="25">
+        <v>1</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="18">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
-      <c r="H44" s="28">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23">
+      <c r="H44" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" s="14">
         <f>1500/1000</f>
         <v>1.5</v>
       </c>
-      <c r="D45" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23">
+      <c r="D45" s="15">
+        <v>1</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="49"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14">
         <f>800/1000</f>
         <v>0.8</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="15">
         <v>0.3</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19">
+      <c r="E46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10">
         <v>0.187</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="11">
         <v>0.67</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14">
         <f>1000/1000</f>
         <v>1</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="15">
         <v>0.3</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23">
+      <c r="E47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14">
         <v>0.374</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14">
         <f>1404/1000</f>
-        <v>1.404</v>
-      </c>
-      <c r="D48" s="24">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="D48" s="15">
         <v>0.3</v>
       </c>
-      <c r="E48" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23">
-        <v>0.56</v>
-      </c>
-      <c r="H48" s="24">
+      <c r="E48" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H48" s="15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14">
         <f>1000/1000</f>
         <v>1</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="15">
         <v>0.3</v>
       </c>
-      <c r="E49" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23">
+      <c r="E49" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14">
         <v>0.747</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14">
         <f>600/1000</f>
         <v>0.6</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="15">
         <v>0.25</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23">
-        <v>1.12</v>
-      </c>
-      <c r="H50" s="24">
+      <c r="E50" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H50" s="15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14">
         <f>1500/1000</f>
         <v>1.5</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="15">
         <v>0.4</v>
       </c>
-      <c r="E51" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23">
+      <c r="E51" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14">
         <v>1.494</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="C52" s="27">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18">
         <f>1800/1000</f>
         <v>1.8</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="19">
         <v>0.4</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14">
+        <v>3.7349999999999999</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23">
-        <v>2.241</v>
-      </c>
-      <c r="H52" s="24">
+      <c r="F54" s="13"/>
+      <c r="G54" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="15" t="s">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A55" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="22" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23">
-        <v>3.735</v>
-      </c>
-      <c r="H53" s="24">
+      <c r="F55" s="13"/>
+      <c r="G55" s="14">
+        <v>2</v>
+      </c>
+      <c r="H55" s="15">
         <v>0.67</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="18" t="s">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A56" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="21">
+      <c r="B56" s="13"/>
+      <c r="C56" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H57" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="H58" s="15">
         <v>0.2</v>
       </c>
-      <c r="D54" s="20">
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D59" s="25">
+        <v>1</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="H59" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="16">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="49"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="18">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H61" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="D62" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="16">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D64" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="D65" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D67" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="16">
+        <v>1</v>
+      </c>
+      <c r="D68" s="15">
+        <v>0.53</v>
+      </c>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D69" s="15">
+        <v>3</v>
+      </c>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="D70" s="15">
+        <v>1</v>
+      </c>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D71" s="15">
+        <v>1</v>
+      </c>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D72" s="15">
+        <v>1</v>
+      </c>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A73" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="16">
+        <v>1.44</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1</v>
+      </c>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D74" s="15">
         <v>0.17</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="H54" s="24">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="25">
-        <v>0.11</v>
-      </c>
-      <c r="D55" s="24">
-        <v>0.17</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="H55" s="24">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="D56" s="24">
-        <v>0.17</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23">
-        <v>7.1</v>
-      </c>
-      <c r="H56" s="24">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="D57" s="24">
-        <v>0.17</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="H57" s="24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="D58" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="H58" s="24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="D59" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27">
-        <v>0.625</v>
-      </c>
-      <c r="H59" s="28">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="25">
-        <v>0.576</v>
-      </c>
-      <c r="D60" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="25">
-        <v>0.78</v>
-      </c>
-      <c r="D61" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="43"/>
-      <c r="G61" s="27">
-        <v>0.175</v>
-      </c>
-      <c r="H61" s="36">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="D62" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="46"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="25">
-        <v>0.735</v>
-      </c>
-      <c r="D63" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="D64" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="D65" s="28">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="D67" s="20">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="D68" s="24">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="25">
-        <v>0.045</v>
-      </c>
-      <c r="D69" s="24">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="25">
-        <v>1.3</v>
-      </c>
-      <c r="D70" s="24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="22" t="s">
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B71" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="C71" s="25">
-        <v>0.415</v>
-      </c>
-      <c r="D71" s="24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="22" t="s">
+      <c r="B75" s="13"/>
+      <c r="C75" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A76" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="25">
-        <v>1.15</v>
-      </c>
-      <c r="D72" s="24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="22" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="D76" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="25">
-        <v>1.44</v>
-      </c>
-      <c r="D73" s="24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="22" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1</v>
+      </c>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A81" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25">
-        <v>1.1</v>
-      </c>
-      <c r="D74" s="24">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="22" t="s">
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="25">
-        <v>1.4</v>
-      </c>
-      <c r="D75" s="24">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="25">
-        <v>1.6</v>
-      </c>
-      <c r="D76" s="24">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="D77" s="24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -3714,12 +3815,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="E60:H60"/>
@@ -3731,9 +3826,14 @@
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
